--- a/data/financial_statements/sofp/QRVO.xlsx
+++ b/data/financial_statements/sofp/QRVO.xlsx
@@ -14,9 +14,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,138 +607,138 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41364</v>
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>912000000</v>
+        <v>911570000</v>
       </c>
       <c r="C2">
-        <v>859000000</v>
+        <v>858791000</v>
       </c>
       <c r="D2">
-        <v>973000000</v>
+        <v>972592000</v>
       </c>
       <c r="E2">
-        <v>989000000</v>
+        <v>988527000</v>
       </c>
       <c r="F2">
-        <v>1153000000</v>
+        <v>1153172000</v>
       </c>
       <c r="G2">
         <v>1200245000</v>
@@ -718,23 +823,23 @@
       </c>
     </row>
     <row r="3" spans="1:38">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>669000000</v>
+        <v>668909000</v>
       </c>
       <c r="C3">
-        <v>556000000</v>
+        <v>556107000</v>
       </c>
       <c r="D3">
-        <v>601000000</v>
+        <v>601001000</v>
       </c>
       <c r="E3">
-        <v>644000000</v>
+        <v>644221000</v>
       </c>
       <c r="F3">
-        <v>697000000</v>
+        <v>696628000</v>
       </c>
       <c r="G3">
         <v>516540000</v>
@@ -819,23 +924,23 @@
       </c>
     </row>
     <row r="4" spans="1:38">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B4">
-        <v>841000000</v>
+        <v>840850000</v>
       </c>
       <c r="C4">
-        <v>847000000</v>
+        <v>847378000</v>
       </c>
       <c r="D4">
-        <v>756000000</v>
+        <v>755748000</v>
       </c>
       <c r="E4">
-        <v>710000000</v>
+        <v>710228000</v>
       </c>
       <c r="F4">
-        <v>598000000</v>
+        <v>597563000</v>
       </c>
       <c r="G4">
         <v>570144000</v>
@@ -920,23 +1025,23 @@
       </c>
     </row>
     <row r="5" spans="1:38">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B5">
-        <v>100000000</v>
+        <v>52054000</v>
       </c>
       <c r="C5">
-        <v>110000000</v>
+        <v>60603000</v>
       </c>
       <c r="D5">
-        <v>121000000</v>
+        <v>70685000</v>
       </c>
       <c r="E5">
-        <v>103000000</v>
+        <v>58437000</v>
       </c>
       <c r="F5">
-        <v>94000000</v>
+        <v>44606000</v>
       </c>
       <c r="G5">
         <v>47755000</v>
@@ -1021,23 +1126,23 @@
       </c>
     </row>
     <row r="6" spans="1:38">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B6">
-        <v>2521000000</v>
+        <v>2521284000</v>
       </c>
       <c r="C6">
-        <v>2372000000</v>
+        <v>2372489000</v>
       </c>
       <c r="D6">
-        <v>2450000000</v>
+        <v>2449865000</v>
       </c>
       <c r="E6">
-        <v>2446000000</v>
+        <v>2445851000</v>
       </c>
       <c r="F6">
-        <v>2541000000</v>
+        <v>2541267000</v>
       </c>
       <c r="G6">
         <v>2374085000</v>
@@ -1122,23 +1227,23 @@
       </c>
     </row>
     <row r="7" spans="1:38">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>1223000000</v>
+        <v>1222924000</v>
       </c>
       <c r="C7">
-        <v>1234000000</v>
+        <v>1234334000</v>
       </c>
       <c r="D7">
-        <v>1327000000</v>
+        <v>1253591000</v>
       </c>
       <c r="E7">
-        <v>1267000000</v>
+        <v>1266805000</v>
       </c>
       <c r="F7">
-        <v>1277000000</v>
+        <v>1276810000</v>
       </c>
       <c r="G7">
         <v>1270727000</v>
@@ -1223,23 +1328,23 @@
       </c>
     </row>
     <row r="8" spans="1:38">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>29000000</v>
+        <v>29452000</v>
       </c>
       <c r="C8">
-        <v>28000000</v>
+        <v>28281000</v>
       </c>
       <c r="D8">
-        <v>31000000</v>
+        <v>31086000</v>
       </c>
       <c r="E8">
-        <v>38000000</v>
+        <v>38234000</v>
       </c>
       <c r="F8">
-        <v>37000000</v>
+        <v>36908000</v>
       </c>
       <c r="G8">
         <v>45939000</v>
@@ -1324,23 +1429,23 @@
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B9">
-        <v>3343000000</v>
+        <v>3342984000</v>
       </c>
       <c r="C9">
-        <v>3396000000</v>
+        <v>3396469000</v>
       </c>
       <c r="D9">
-        <v>3450000000</v>
+        <v>3450420000</v>
       </c>
       <c r="E9">
-        <v>3543000000</v>
+        <v>3542951000</v>
       </c>
       <c r="F9">
-        <v>3350000000</v>
+        <v>3349602000</v>
       </c>
       <c r="G9">
         <v>3394526000</v>
@@ -1431,23 +1536,23 @@
       </c>
     </row>
     <row r="10" spans="1:38">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B10">
-        <v>258000000</v>
+        <v>258088000</v>
       </c>
       <c r="C10">
-        <v>299000000</v>
+        <v>298948000</v>
       </c>
       <c r="D10">
-        <v>214000000</v>
+        <v>324110000</v>
       </c>
       <c r="E10">
-        <v>333000000</v>
+        <v>332744000</v>
       </c>
       <c r="F10">
-        <v>372000000</v>
+        <v>371869000</v>
       </c>
       <c r="G10">
         <v>186582000</v>
@@ -1532,8 +1637,8 @@
       </c>
     </row>
     <row r="11" spans="1:38">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B11">
         <v>4853448000</v>
@@ -1633,23 +1738,23 @@
       </c>
     </row>
     <row r="12" spans="1:38">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>7375000000</v>
+        <v>7374732000</v>
       </c>
       <c r="C12">
-        <v>7331000000</v>
+        <v>7330521000</v>
       </c>
       <c r="D12">
-        <v>7509000000</v>
+        <v>7509072000</v>
       </c>
       <c r="E12">
-        <v>7627000000</v>
+        <v>7626585000</v>
       </c>
       <c r="F12">
-        <v>7576000000</v>
+        <v>7576456000</v>
       </c>
       <c r="G12">
         <v>7271859000</v>
@@ -1749,23 +1854,23 @@
       </c>
     </row>
     <row r="13" spans="1:38">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B13">
-        <v>322000000</v>
+        <v>322247000</v>
       </c>
       <c r="C13">
-        <v>328000000</v>
+        <v>327879000</v>
       </c>
       <c r="D13">
-        <v>328000000</v>
+        <v>327915000</v>
       </c>
       <c r="E13">
-        <v>358000000</v>
+        <v>357879000</v>
       </c>
       <c r="F13">
-        <v>522000000</v>
+        <v>521569000</v>
       </c>
       <c r="G13">
         <v>352143000</v>
@@ -1850,8 +1955,8 @@
       </c>
     </row>
     <row r="14" spans="1:38">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B14">
         <v>298882000</v>
@@ -1951,8 +2056,8 @@
       </c>
     </row>
     <row r="15" spans="1:38">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D15">
         <v>17000000</v>
@@ -1961,7 +2066,7 @@
         <v>1000000</v>
       </c>
       <c r="F15">
-        <v>6000000</v>
+        <v>5545000</v>
       </c>
       <c r="G15">
         <v>5237000</v>
@@ -1995,8 +2100,8 @@
       </c>
     </row>
     <row r="16" spans="1:38">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -2006,8 +2111,8 @@
       </c>
     </row>
     <row r="17" spans="1:38">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AK17">
         <v>0</v>
@@ -2017,23 +2122,23 @@
       </c>
     </row>
     <row r="18" spans="1:38">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B18">
-        <v>442000000</v>
+        <v>142998000</v>
       </c>
       <c r="C18">
-        <v>391000000</v>
+        <v>141563000</v>
       </c>
       <c r="D18">
-        <v>242000000</v>
+        <v>107026000</v>
       </c>
       <c r="E18">
-        <v>315000000</v>
+        <v>87650000</v>
       </c>
       <c r="F18">
-        <v>375000000</v>
+        <v>90692000</v>
       </c>
       <c r="G18">
         <v>97257000</v>
@@ -2118,23 +2223,23 @@
       </c>
     </row>
     <row r="19" spans="1:38">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B19">
-        <v>764000000</v>
+        <v>764127000</v>
       </c>
       <c r="C19">
-        <v>718000000</v>
+        <v>718450000</v>
       </c>
       <c r="D19">
-        <v>675000000</v>
+        <v>675127000</v>
       </c>
       <c r="E19">
-        <v>673000000</v>
+        <v>673427000</v>
       </c>
       <c r="F19">
-        <v>902000000</v>
+        <v>902495000</v>
       </c>
       <c r="G19">
         <v>703708000</v>
@@ -2219,23 +2324,23 @@
       </c>
     </row>
     <row r="20" spans="1:38">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>2047000000</v>
+        <v>2047398000</v>
       </c>
       <c r="C20">
-        <v>2047000000</v>
+        <v>2047183000</v>
       </c>
       <c r="D20">
-        <v>2109000000</v>
+        <v>2047098000</v>
       </c>
       <c r="E20">
-        <v>2047000000</v>
+        <v>2046951000</v>
       </c>
       <c r="F20">
-        <v>1741000000</v>
+        <v>1740552000</v>
       </c>
       <c r="G20">
         <v>1741548000</v>
@@ -2311,8 +2416,8 @@
       </c>
     </row>
     <row r="21" spans="1:38">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -2322,8 +2427,8 @@
       </c>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D22">
         <v>-37000000</v>
@@ -2396,8 +2501,8 @@
       </c>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -2407,23 +2512,23 @@
       </c>
     </row>
     <row r="24" spans="1:38">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B24">
-        <v>241000000</v>
+        <v>241067000</v>
       </c>
       <c r="C24">
-        <v>264000000</v>
+        <v>264283000</v>
       </c>
       <c r="D24">
-        <v>172000000</v>
+        <v>233629000</v>
       </c>
       <c r="E24">
-        <v>239000000</v>
+        <v>239008000</v>
       </c>
       <c r="F24">
-        <v>206000000</v>
+        <v>205655000</v>
       </c>
       <c r="G24">
         <v>178209000</v>
@@ -2508,8 +2613,8 @@
       </c>
     </row>
     <row r="25" spans="1:38">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B25">
         <v>2288465000</v>
@@ -2609,23 +2714,23 @@
       </c>
     </row>
     <row r="26" spans="1:38">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B26">
-        <v>3053000000</v>
+        <v>3052592000</v>
       </c>
       <c r="C26">
-        <v>3030000000</v>
+        <v>3029916000</v>
       </c>
       <c r="D26">
-        <v>2956000000</v>
+        <v>2955854000</v>
       </c>
       <c r="E26">
-        <v>2959000000</v>
+        <v>2959386000</v>
       </c>
       <c r="F26">
-        <v>2849000000</v>
+        <v>2848702000</v>
       </c>
       <c r="G26">
         <v>2623465000</v>
@@ -2722,8 +2827,8 @@
       </c>
     </row>
     <row r="27" spans="1:38">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="AH27">
         <v>100</v>
@@ -2739,8 +2844,8 @@
       </c>
     </row>
     <row r="28" spans="1:38">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -2750,23 +2855,23 @@
       </c>
     </row>
     <row r="29" spans="1:38">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B29">
-        <v>3916000000</v>
+        <v>3915969000</v>
       </c>
       <c r="C29">
-        <v>3962000000</v>
+        <v>3962499000</v>
       </c>
       <c r="D29">
-        <v>4036000000</v>
+        <v>4035849000</v>
       </c>
       <c r="E29">
-        <v>4119000000</v>
+        <v>4119098000</v>
       </c>
       <c r="F29">
-        <v>4158000000</v>
+        <v>4158170000</v>
       </c>
       <c r="G29">
         <v>4210914000</v>
@@ -2863,23 +2968,23 @@
       </c>
     </row>
     <row r="30" spans="1:38">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B30">
-        <v>448000000</v>
+        <v>447947000</v>
       </c>
       <c r="C30">
-        <v>356000000</v>
+        <v>356080000</v>
       </c>
       <c r="D30">
-        <v>512000000</v>
+        <v>512137000</v>
       </c>
       <c r="E30">
-        <v>533000000</v>
+        <v>533488000</v>
       </c>
       <c r="F30">
-        <v>546000000</v>
+        <v>546153000</v>
       </c>
       <c r="G30">
         <v>404562000</v>
@@ -2961,8 +3066,8 @@
       </c>
     </row>
     <row r="31" spans="1:38">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -2972,8 +3077,8 @@
       </c>
     </row>
     <row r="32" spans="1:38">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="AH32">
         <v>-100</v>
@@ -2989,23 +3094,23 @@
       </c>
     </row>
     <row r="33" spans="1:38">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>4322000000</v>
+        <v>4322140000</v>
       </c>
       <c r="C33">
-        <v>4301000000</v>
+        <v>4300605000</v>
       </c>
       <c r="D33">
-        <v>4553000000</v>
+        <v>4553218000</v>
       </c>
       <c r="E33">
-        <v>4667000000</v>
+        <v>4667199000</v>
       </c>
       <c r="F33">
-        <v>4728000000</v>
+        <v>4727754000</v>
       </c>
       <c r="G33">
         <v>4648394000</v>
@@ -3090,23 +3195,23 @@
       </c>
     </row>
     <row r="34" spans="1:38">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B34">
-        <v>4322000000</v>
+        <v>4322140000</v>
       </c>
       <c r="C34">
-        <v>4301000000</v>
+        <v>4300605000</v>
       </c>
       <c r="D34">
-        <v>4553000000</v>
+        <v>4553218000</v>
       </c>
       <c r="E34">
-        <v>4667000000</v>
+        <v>4667199000</v>
       </c>
       <c r="F34">
-        <v>4728000000</v>
+        <v>4727754000</v>
       </c>
       <c r="G34">
         <v>4648394000</v>
@@ -3203,8 +3308,8 @@
       </c>
     </row>
     <row r="35" spans="1:38">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B35">
         <v>7374732000</v>
@@ -3316,8 +3421,8 @@
       </c>
     </row>
     <row r="36" spans="1:38">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B36">
         <v>102061000</v>
@@ -3423,8 +3528,8 @@
       </c>
     </row>
     <row r="37" spans="1:38">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B37">
         <v>979155800</v>
@@ -3524,23 +3629,23 @@
       </c>
     </row>
     <row r="38" spans="1:38">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B38">
-        <v>1135000000</v>
+        <v>1135828000</v>
       </c>
       <c r="C38">
-        <v>1188000000</v>
+        <v>1188392000</v>
       </c>
       <c r="D38">
-        <v>1153000000</v>
+        <v>1091506000</v>
       </c>
       <c r="E38">
-        <v>1059000000</v>
+        <v>1059424000</v>
       </c>
       <c r="F38">
-        <v>594000000</v>
+        <v>592925000</v>
       </c>
       <c r="G38">
         <v>546540000</v>
@@ -3625,23 +3730,23 @@
       </c>
     </row>
     <row r="39" spans="1:38">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B39">
-        <v>2047000000</v>
+        <v>2047398000</v>
       </c>
       <c r="C39">
-        <v>2047000000</v>
+        <v>2047183000</v>
       </c>
       <c r="D39">
-        <v>2126000000</v>
+        <v>2064098000</v>
       </c>
       <c r="E39">
-        <v>2048000000</v>
+        <v>2047951000</v>
       </c>
       <c r="F39">
-        <v>1747000000</v>
+        <v>1746097000</v>
       </c>
       <c r="G39">
         <v>1746785000</v>
